--- a/GoTaq_PCR_Calculator.xlsx
+++ b/GoTaq_PCR_Calculator.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">GoTaq Reaction Calculator</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve">Total Volume of MM -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To each PCR tube, add the following:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Master Mix to all tubes first (use one tip) and then use clean tips to add template</t>
   </si>
 </sst>
 </file>
@@ -79,6 +85,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -100,15 +107,17 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +134,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
         <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -176,35 +191,39 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,7 +232,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,7 +294,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -294,17 +325,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,7 +397,7 @@
       <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="7" t="str">
         <f aca="false">CONCATENATE(E7," reactions")</f>
         <v>8 reactions</v>
       </c>
@@ -376,7 +410,7 @@
         <f aca="false">E8/2</f>
         <v>12.5</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="8" t="n">
         <f aca="false">B15*E7</f>
         <v>100</v>
       </c>
@@ -389,7 +423,7 @@
         <f aca="false">E8/25</f>
         <v>1</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="8" t="n">
         <f aca="false">B16*E7</f>
         <v>8</v>
       </c>
@@ -402,7 +436,7 @@
         <f aca="false">E8/25</f>
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="8" t="n">
         <f aca="false">B17*E7</f>
         <v>8</v>
       </c>
@@ -414,15 +448,15 @@
       <c r="B18" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -432,7 +466,7 @@
         <f aca="false">E8-SUM(B15:B18)</f>
         <v>7.5</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="8" t="n">
         <f aca="false">B19*E7</f>
         <v>60</v>
       </c>
@@ -446,14 +480,58 @@
         <v>176</v>
       </c>
     </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11" t="str">
+        <f aca="false">CONCATENATE(B18," uL")</f>
+        <v>3 uL</v>
+      </c>
+      <c r="E24" s="11" t="str">
+        <f aca="false">CONCATENATE((E8-B18)," uL")</f>
+        <v>22 uL</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true"/>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="D18:G18"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/GoTaq_PCR_Calculator.xlsx
+++ b/GoTaq_PCR_Calculator.xlsx
@@ -328,7 +328,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -371,7 +371,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,7 +399,7 @@
       </c>
       <c r="C14" s="7" t="str">
         <f aca="false">CONCATENATE(E7," reactions")</f>
-        <v>8 reactions</v>
+        <v>30 reactions</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,7 +412,7 @@
       </c>
       <c r="C15" s="8" t="n">
         <f aca="false">B15*E7</f>
-        <v>100</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,7 +425,7 @@
       </c>
       <c r="C16" s="8" t="n">
         <f aca="false">B16*E7</f>
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,7 +438,7 @@
       </c>
       <c r="C17" s="8" t="n">
         <f aca="false">B17*E7</f>
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,7 +468,7 @@
       </c>
       <c r="C19" s="8" t="n">
         <f aca="false">B19*E7</f>
-        <v>60</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,7 +477,7 @@
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">C19+C17+C16+C15</f>
-        <v>176</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
